--- a/code_graphing/MTScore.xlsx
+++ b/code_graphing/MTScore.xlsx
@@ -514,7 +514,7 @@
         <v>2670.065306122449</v>
       </c>
       <c r="E4" t="n">
-        <v>2671.11072056239</v>
+        <v>2208.628205128205</v>
       </c>
       <c r="F4" t="n">
         <v>1198.295128939828</v>
@@ -534,7 +534,7 @@
         <v>3038.969072164949</v>
       </c>
       <c r="E5" t="n">
-        <v>2832.502252252252</v>
+        <v>2554.493827160494</v>
       </c>
       <c r="F5" t="n">
         <v>1329.909348441926</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>3916.380403458213</v>
+        <v>3414.081871345029</v>
       </c>
       <c r="E6" t="n">
         <v>2875.390625</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>3630.788029925187</v>
+        <v>4380.935810810811</v>
       </c>
       <c r="E8" t="n">
         <v>3106.922222222222</v>
@@ -611,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3948.518518518519</v>
+        <v>4498.456621004566</v>
       </c>
       <c r="E9" t="n">
         <v>3303.673076923077</v>
@@ -631,7 +631,7 @@
         <v>6861.251724137931</v>
       </c>
       <c r="D10" t="n">
-        <v>5624.826210826211</v>
+        <v>6247.116853932584</v>
       </c>
       <c r="E10" t="n">
         <v>4815.95</v>
@@ -651,7 +651,7 @@
         <v>8458.276553106212</v>
       </c>
       <c r="D11" t="n">
-        <v>6070.251937984496</v>
+        <v>6856.784946236559</v>
       </c>
       <c r="E11" t="n">
         <v>4974.646551724138</v>
